--- a/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T13:20:25+00:00</t>
+    <t>2025-01-23T13:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T13:36:56+00:00</t>
+    <t>2025-01-27T13:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T13:10:35+00:00</t>
+    <t>2025-02-17T16:10:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T16:10:07+00:00</t>
+    <t>2025-02-19T15:36:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T15:36:11+00:00</t>
+    <t>2025-02-20T13:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
